--- a/results/results_excel/login_case.xlsx
+++ b/results/results_excel/login_case.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liun\PycharmProjects\ittsp_selenium_test\results\results_excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17460" windowHeight="8880"/>
   </bookViews>
   <sheets>
-    <sheet name="login_case" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="login_case" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>用例编号</t>
   </si>
@@ -80,20 +84,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -109,15 +119,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -405,20 +424,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,14 +464,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>123</v>
       </c>
       <c r="D2" t="s">
@@ -464,8 +487,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -487,8 +510,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -510,8 +533,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -533,8 +556,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
@@ -551,6 +574,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/results_excel/login_case.xlsx
+++ b/results/results_excel/login_case.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liun\PycharmProjects\ittsp_selenium_test\results\results_excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17460" windowHeight="8880"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="login_case" sheetId="1" r:id="rId1"/>
+    <sheet name="login_case" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>用例编号</t>
   </si>
@@ -84,26 +80,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -119,24 +109,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -424,24 +405,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,14 +441,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="2" spans="1:7">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>123</v>
       </c>
       <c r="D2" t="s">
@@ -487,8 +464,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3" spans="1:7">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -510,8 +487,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="4" spans="1:7">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -533,8 +510,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5">
+    <row r="5" spans="1:7">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -556,8 +533,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6">
+    <row r="6" spans="1:7">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
@@ -574,8 +551,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>